--- a/wordDocs/model questions.xlsx
+++ b/wordDocs/model questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="620" windowWidth="24960" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">model </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,7 +349,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>